--- a/todoExam/CHOU_VANG.xlsx
+++ b/todoExam/CHOU_VANG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDA Python\Cours\Bachelor CDA\DEV\Symfony_5_php_7.4\mondoudou\todoExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6410F0-1DBB-47AF-A807-282EA4C9DBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41190" yWindow="210" windowWidth="16560" windowHeight="15660" xr2:uid="{A24BEFEC-A543-4A0D-835A-40E3BE600517}"/>
+    <workbookView xWindow="41196" yWindow="216" windowWidth="16560" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Apprenant 3" sheetId="10" r:id="rId1"/>
@@ -349,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,7 +854,6 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -939,15 +937,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{8A997552-2420-4C85-8BAD-3E98C9DA7F03}" name="Table114" displayName="Table114" ref="D4:F31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="D4:F31" xr:uid="{1B1B616A-580B-4AA6-BA1A-85FD03B818C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table114" displayName="Table114" ref="D4:F31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="D4:F31"/>
+  <sortState ref="D5:F31">
     <sortCondition ref="D3:D30"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D985D826-1597-4903-B909-32252CEF62CE}" name="Type" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{834594C2-8D0F-4A86-8267-3DC87F7BCE99}" name="Designation fonctionnelle" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3BD4342B-6D74-4F4E-8C26-0EEE4968AA15}" name="Désignation technique (pour l'auditeur)" dataDxfId="0"/>
+    <tableColumn id="1" name="Type" dataDxfId="2"/>
+    <tableColumn id="2" name="Designation fonctionnelle" dataDxfId="1"/>
+    <tableColumn id="3" name="Désignation technique (pour l'auditeur)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1249,28 +1247,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8B97A-7195-459D-BB0F-2AEF7B498F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:F42"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="3" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="63.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="65.44140625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="63.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1281,7 @@
       <c r="I3" s="37"/>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="2:10" s="25" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" s="25" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>67</v>
       </c>
@@ -1328,12 +1326,12 @@
       <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="21">
         <v>2</v>
@@ -1352,7 +1350,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
       <c r="C7" s="20">
         <v>3</v>
@@ -1366,12 +1364,12 @@
       <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32"/>
       <c r="C8" s="20">
         <v>4</v>
@@ -1390,7 +1388,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="20">
         <v>5</v>
       </c>
@@ -1403,12 +1401,12 @@
       <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="34"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="20">
         <v>6</v>
       </c>
@@ -1426,7 +1424,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="20">
         <v>7</v>
       </c>
@@ -1439,12 +1437,12 @@
       <c r="F11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="20">
         <v>8</v>
       </c>
@@ -1462,7 +1460,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="20">
         <v>9</v>
       </c>
@@ -1480,7 +1478,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="20">
         <v>10</v>
       </c>
@@ -1493,12 +1491,12 @@
       <c r="F14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="20">
         <v>11</v>
       </c>
@@ -1511,12 +1509,12 @@
       <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="20">
         <v>12</v>
       </c>
@@ -1534,7 +1532,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20">
         <v>13</v>
       </c>
@@ -1552,7 +1550,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="20">
         <v>14</v>
       </c>
@@ -1565,12 +1563,12 @@
       <c r="F18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="20">
         <v>15</v>
       </c>
@@ -1583,12 +1581,12 @@
       <c r="F19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="20">
         <v>16</v>
       </c>
@@ -1601,12 +1599,12 @@
       <c r="F20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="20">
         <v>17</v>
       </c>
@@ -1619,12 +1617,12 @@
       <c r="F21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="20">
         <v>18</v>
       </c>
@@ -1637,12 +1635,12 @@
       <c r="F22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="20">
         <v>19</v>
       </c>
@@ -1660,7 +1658,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="20">
         <v>20</v>
       </c>
@@ -1678,7 +1676,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="20">
         <v>21</v>
       </c>
@@ -1696,7 +1694,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="20">
         <v>22</v>
       </c>
@@ -1709,12 +1707,12 @@
       <c r="F26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="20">
         <v>23</v>
       </c>
@@ -1732,7 +1730,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="20">
         <v>24</v>
       </c>
@@ -1750,7 +1748,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="20">
         <v>25</v>
       </c>
@@ -1763,12 +1761,12 @@
       <c r="F29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="20">
         <v>26</v>
       </c>
@@ -1781,12 +1779,12 @@
       <c r="F30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="20">
         <v>27</v>
       </c>
@@ -1804,50 +1802,50 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="3:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="4:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="4:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D34" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="4:6" s="28" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="42"/>
       <c r="E36" s="43"/>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="42"/>
       <c r="E38" s="43"/>
       <c r="F38" s="44"/>
     </row>
-    <row r="39" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="42"/>
       <c r="E39" s="43"/>
       <c r="F39" s="44"/>
     </row>
-    <row r="40" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
       <c r="F40" s="44"/>
     </row>
-    <row r="41" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="42"/>
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="4:6" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:6" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="45"/>
       <c r="E42" s="46"/>
       <c r="F42" s="47"/>
